--- a/data/gtfs_spec.xlsx
+++ b/data/gtfs_spec.xlsx
@@ -892,7 +892,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
